--- a/BOM_MICHAv2.0.xlsx
+++ b/BOM_MICHAv2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helbe-my.sharepoint.com/personal/sylvain_dewez_student_hel_be/Documents/BAC 3/Stage/Déroulement/fichiers/Github/MICHA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1226" documentId="11_AD4D9D64A577C15A4A5418E8A0DB70CC5BDEDD83" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{464EF9F3-FFD0-4022-BBC5-D89AF3DBEDE5}"/>
+  <xr:revisionPtr revIDLastSave="1241" documentId="11_AD4D9D64A577C15A4A5418E8A0DB70CC5BDEDD83" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2C64637D-0BEC-4847-86D5-2D03CCAFFDDC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="218">
   <si>
     <t>Item</t>
   </si>
@@ -502,9 +502,6 @@
     <t>12V, jaune</t>
   </si>
   <si>
-    <t>À commander</t>
-  </si>
-  <si>
     <t>Qty in stock</t>
   </si>
   <si>
@@ -663,6 +660,38 @@
   </si>
   <si>
     <t>LP10A1AG</t>
+  </si>
+  <si>
+    <t>embase mâle
+2 broches</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>2 voies</t>
+  </si>
+  <si>
+    <t>Connecter</t>
+  </si>
+  <si>
+    <t>3 voies</t>
+  </si>
+  <si>
+    <t>Pas de 2,54mm, pour la sélection des
+sorties de réserve</t>
+  </si>
+  <si>
+    <t>Pour router les sorties de réserves</t>
+  </si>
+  <si>
+    <t>Pour la sortie du R-Meter</t>
+  </si>
+  <si>
+    <t>À commander (stock insuffisant)</t>
+  </si>
+  <si>
+    <t>En stock (mais limite)</t>
   </si>
 </sst>
 </file>
@@ -713,7 +742,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,6 +764,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -849,10 +884,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1025,10 +1056,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1072,14 +1099,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1089,10 +1119,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,7 +1138,7 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -1112,6 +1150,118 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1181,7 +1331,7 @@
         </row>
         <row r="5">
           <cell r="F5">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="6">
@@ -1211,27 +1361,27 @@
         </row>
         <row r="12">
           <cell r="F12">
-            <v>100</v>
+            <v>99</v>
           </cell>
         </row>
         <row r="13">
           <cell r="F13">
-            <v>9</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="15">
           <cell r="F15">
-            <v>16</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="16">
           <cell r="F16">
-            <v>23</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="17">
           <cell r="F17">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="19">
@@ -1241,42 +1391,42 @@
         </row>
         <row r="20">
           <cell r="F20">
-            <v>17</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="21">
           <cell r="F21">
-            <v>5</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="24">
           <cell r="F24">
-            <v>10</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="25">
           <cell r="F25">
-            <v>6</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="26">
           <cell r="F26">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="28">
           <cell r="F28">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="30">
           <cell r="F30">
-            <v>6</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="32">
           <cell r="F32">
-            <v>10</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="33">
@@ -1286,17 +1436,17 @@
         </row>
         <row r="36">
           <cell r="F36">
-            <v>18</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="37">
           <cell r="F37">
-            <v>6</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="38">
           <cell r="F38">
-            <v>5</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="39">
@@ -1311,7 +1461,7 @@
         </row>
         <row r="41">
           <cell r="F41">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="42">
@@ -1327,6 +1477,21 @@
         <row r="44">
           <cell r="F44">
             <v>2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="F45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="F46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="F47">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1600,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C6BB1E-CDC9-41D8-A56D-50F2079A148E}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,7 +1778,7 @@
     <col min="5" max="5" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="58" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="56" customWidth="1"/>
     <col min="9" max="9" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -1622,1869 +1787,1956 @@
       <c r="G1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="49" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="I4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>7</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="52" t="str">
+      <c r="H5" s="50" t="str">
         <f>[1]Feuil1!$F$2</f>
         <v>&gt;20</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>2</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="53" t="str">
+      <c r="H6" s="51" t="str">
         <f>[1]Feuil1!$F$3</f>
         <v>&gt;20</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="16" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64">
+      <c r="A7" s="63">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>6</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="54" t="str">
+      <c r="H7" s="52" t="str">
         <f>[1]Feuil1!$F$4</f>
         <v>&gt;20</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="20"/>
+      <c r="J7" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="24" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="10" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62">
+      <c r="A9" s="60">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="D9" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="8">
+      <c r="H9" s="50">
+        <f>[1]Feuil1!$F$24</f>
+        <v>6</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>4</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H9" s="52">
-        <f>[1]Feuil1!$F$24</f>
-        <v>10</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="B10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="51">
+        <f>[1]Feuil1!$F$28</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>2202982</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="51">
+        <f>[1]Feuil1!$F$38</f>
         <v>4</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="I11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+    </row>
+    <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>6</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="53">
-        <f>[1]Feuil1!$F$28</f>
+      <c r="F12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="51">
+        <f>[1]Feuil1!$F$5</f>
+        <v>3</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+    </row>
+    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>7</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
         <v>1</v>
       </c>
-      <c r="I10" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-    </row>
-    <row r="11" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="F13" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="51">
+        <f>[1]Feuil1!$F$36</f>
+        <v>17</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+    </row>
+    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>8</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="30">
-        <v>2202982</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="53">
-        <f>[1]Feuil1!$F$38</f>
-        <v>5</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-    </row>
-    <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>6</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="13">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="53">
-        <f>[1]Feuil1!$F$5</f>
-        <v>4</v>
-      </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-    </row>
-    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>7</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="53">
-        <f>[1]Feuil1!$F$36</f>
-        <v>18</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-    </row>
-    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>8</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>100</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>3</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="53" t="str">
+      <c r="H14" s="51" t="str">
         <f>[1]Feuil1!$F$6</f>
         <v>&gt;20</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>9</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>5</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="53">
         <f>[1]Feuil1!$F$11</f>
         <v>0</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="29" t="s">
+      <c r="I15" s="30"/>
+      <c r="J15" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-    </row>
-    <row r="16" spans="1:20" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64">
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+    </row>
+    <row r="16" spans="1:20" s="25" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="63">
         <v>10</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="32">
         <v>680</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <v>1</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="54">
         <f>[1]Feuil1!$F$12</f>
-        <v>100</v>
-      </c>
-      <c r="I16" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="J16" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-    </row>
-    <row r="17" spans="1:20" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+    </row>
+    <row r="17" spans="1:20" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="64"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
     </row>
     <row r="18" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64">
+      <c r="A18" s="63">
         <v>11</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>5</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="54" t="str">
+      <c r="H18" s="52" t="str">
         <f>[1]Feuil1!$F$8</f>
         <v>&gt;20</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="24" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="10" t="s">
+      <c r="G19" s="7"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
     </row>
     <row r="20" spans="1:20" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>12</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>160</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>3</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="53" t="str">
+      <c r="H20" s="51" t="str">
         <f>[1]Feuil1!$F$9</f>
         <v>&gt;20</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
     </row>
     <row r="21" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64">
+      <c r="A21" s="63">
         <v>13</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>1</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="54" t="str">
+      <c r="H21" s="52" t="str">
         <f>[1]Feuil1!$F$10</f>
         <v>&gt;20</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="21" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="24" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="10" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>14</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="12">
+        <v>390</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="51">
+        <f>[1]Feuil1!$F$13</f>
+        <v>8</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+    </row>
+    <row r="24" spans="1:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>15</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="13">
-        <v>390</v>
-      </c>
-      <c r="E23" s="13">
+      <c r="D24" s="7">
+        <v>33</v>
+      </c>
+      <c r="E24" s="7">
+        <v>6</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="50">
+        <f>[1]Feuil1!$F$15</f>
+        <v>10</v>
+      </c>
+      <c r="I24" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="65">
+        <v>16</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17">
         <v>1</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="53">
-        <f>[1]Feuil1!$F$13</f>
-        <v>9</v>
-      </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-    </row>
-    <row r="24" spans="1:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="F25" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="52">
+        <f>[1]Feuil1!$F$16</f>
+        <v>22</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="64"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="1:20" s="25" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>17</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="8">
-        <v>33</v>
-      </c>
-      <c r="E24" s="8">
-        <v>6</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="52">
-        <f>[1]Feuil1!$F$15</f>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="66">
-        <v>16</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="54">
-        <f>[1]Feuil1!$F$16</f>
-        <v>23</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="65"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-    </row>
-    <row r="27" spans="1:20" s="26" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>17</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13">
-        <v>2</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="53">
+      <c r="H27" s="51">
         <f>[1]Feuil1!$F$33</f>
         <v>6</v>
       </c>
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>18</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="E28" s="12">
+        <v>3</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="51">
+        <f>[1]Feuil1!$F$32</f>
+        <v>8</v>
+      </c>
+      <c r="I28" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="J28" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E28" s="13">
-        <v>3</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="H28" s="53">
-        <f>[1]Feuil1!$F$32</f>
-        <v>10</v>
-      </c>
-      <c r="I28" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>19</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12">
         <v>1</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="51">
         <f>[1]Feuil1!$F$39</f>
         <v>1</v>
       </c>
-      <c r="I29" s="60"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <v>20</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12">
         <v>1</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="51">
         <f>[1]Feuil1!$F$40</f>
         <v>2</v>
       </c>
-      <c r="I30" s="60"/>
-      <c r="J30" s="31" t="s">
+      <c r="I30" s="58"/>
+      <c r="J30" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <v>21</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" s="51">
+        <f>[1]Feuil1!$F$41</f>
+        <v>3</v>
+      </c>
+      <c r="I31" s="58"/>
+      <c r="J31" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+    </row>
+    <row r="32" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>22</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="12">
+        <v>6</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="51">
+        <f>[1]Feuil1!$F$37</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="63">
+        <v>23</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="52">
+        <v>18</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="64"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E34" s="7"/>
+      <c r="F34" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="44">
+        <v>24</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="12">
         <v>1</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H31" s="53">
-        <f>[1]Feuil1!$F$41</f>
+      <c r="F35" s="14">
+        <v>1725656</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="51">
+        <f>[1]Feuil1!$F$17</f>
+        <v>3</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="63">
+        <v>25</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="17">
+        <v>2</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="52">
+        <f>[1]Feuil1!$F$30</f>
         <v>4</v>
       </c>
-      <c r="I31" s="60"/>
-      <c r="J31" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-    </row>
-    <row r="32" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
-        <v>22</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="13" t="s">
+      <c r="I36" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="64"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="63">
+        <v>26</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="17">
+        <v>1</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="52">
+        <f>[1]Feuil1!$F$20</f>
+        <v>15</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="64"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>27</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="13">
-        <v>6</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="53">
-        <f>[1]Feuil1!$F$37</f>
-        <v>6</v>
-      </c>
-      <c r="I32" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64">
-        <v>23</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="18" t="s">
+      <c r="D40" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E40" s="12">
         <v>1</v>
       </c>
-      <c r="F33" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="54">
-        <v>18</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="65"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-    </row>
-    <row r="35" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45">
-        <v>24</v>
-      </c>
-      <c r="B35" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="13">
-        <v>1</v>
-      </c>
-      <c r="F35" s="15">
-        <v>1725656</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="53">
-        <f>[1]Feuil1!$F$17</f>
-        <v>4</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-    </row>
-    <row r="36" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64">
-        <v>25</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="18">
-        <v>2</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H36" s="54">
-        <f>[1]Feuil1!$F$30</f>
-        <v>6</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-    </row>
-    <row r="38" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64">
-        <v>26</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="18">
-        <v>1</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="54">
-        <f>[1]Feuil1!$F$20</f>
-        <v>17</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="J38" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="65"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-    </row>
-    <row r="40" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
-        <v>27</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="13">
-        <v>1</v>
-      </c>
-      <c r="F40" s="15">
+      <c r="F40" s="14">
         <v>1840382</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H40" s="53">
+      <c r="H40" s="51">
         <f>[1]Feuil1!$F$19</f>
         <v>0</v>
       </c>
-      <c r="I40" s="31" t="s">
+      <c r="I40" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="J40" s="16" t="s">
+      <c r="J40" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
     </row>
     <row r="41" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64">
+      <c r="A41" s="63">
         <v>28</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18" t="s">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="17">
         <v>2</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="54">
+      <c r="H41" s="52">
         <f>[1]Feuil1!$F$21</f>
-        <v>5</v>
-      </c>
-      <c r="I41" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J41" s="22" t="s">
+      <c r="J41" s="21" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="65"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="24" t="s">
+      <c r="A42" s="64"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="10" t="s">
+      <c r="G42" s="7"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
     </row>
     <row r="43" spans="1:20" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64">
+      <c r="A43" s="63">
         <v>29</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="17">
         <v>2</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="54">
+      <c r="H43" s="52">
         <f>[1]Feuil1!$F$25</f>
-        <v>6</v>
-      </c>
-      <c r="I43" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="J43" s="22" t="s">
+      <c r="J43" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="24" t="s">
+      <c r="A44" s="64"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="10" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
     </row>
     <row r="45" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
+      <c r="A45" s="11">
         <v>30</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13" t="s">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="12">
         <v>2</v>
       </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="13" t="s">
+      <c r="F45" s="14"/>
+      <c r="G45" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="53">
+      <c r="H45" s="51">
         <f>[1]Feuil1!$F$26</f>
-        <v>3</v>
-      </c>
-      <c r="I45" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="J45" s="16"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
     </row>
     <row r="46" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
+      <c r="A46" s="11">
         <v>31</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="67" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="E46" s="67">
+      <c r="D46" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="61">
         <v>1</v>
       </c>
-      <c r="F46" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="G46" s="13" t="s">
+      <c r="F46" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="68">
+      <c r="H46" s="62">
         <f>[1]Feuil1!$F$42</f>
         <v>2</v>
       </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
     </row>
     <row r="47" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+      <c r="A47" s="11">
         <v>32</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="67" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="67" t="s">
-        <v>204</v>
-      </c>
-      <c r="E47" s="67">
+      <c r="D47" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" s="61">
         <v>1</v>
       </c>
-      <c r="F47" s="67" t="s">
-        <v>208</v>
-      </c>
-      <c r="G47" s="13" t="s">
+      <c r="F47" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="68">
+      <c r="H47" s="62">
         <f>[1]Feuil1!$F$43</f>
         <v>2</v>
       </c>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
     </row>
     <row r="48" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
+      <c r="A48" s="11">
         <v>33</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="67" t="s">
+      <c r="B48" s="16"/>
+      <c r="C48" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="67" t="s">
+      <c r="D48" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="61">
+        <v>1</v>
+      </c>
+      <c r="F48" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="E48" s="67">
-        <v>1</v>
-      </c>
-      <c r="F48" s="67" t="s">
-        <v>206</v>
-      </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="68">
+      <c r="H48" s="62">
         <f>[1]Feuil1!$F$44</f>
         <v>2</v>
       </c>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="63">
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+    </row>
+    <row r="49" spans="1:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
         <v>34</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18" t="s">
+      <c r="B49" s="16"/>
+      <c r="C49" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" s="61">
+        <v>4</v>
+      </c>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="62">
+        <f>[1]Feuil1!$F$46</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+    </row>
+    <row r="50" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>35</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="61">
+        <v>2</v>
+      </c>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="62">
+        <f>[1]Feuil1!$F$45</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+    </row>
+    <row r="51" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
+        <v>36</v>
+      </c>
+      <c r="B51" s="59"/>
+      <c r="C51" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" s="61">
+        <v>1</v>
+      </c>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="62">
+        <f>[1]Feuil1!$F$47</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+    </row>
+    <row r="52" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="45">
+        <v>37</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D52" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E52" s="17">
         <v>1</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F52" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G52" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="54"/>
-      <c r="I49" s="21" t="s">
+      <c r="H52" s="52"/>
+      <c r="I52" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J49" s="22" t="s">
+      <c r="J52" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="45">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="45">
+        <v>38</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="17">
+        <v>1</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="52"/>
+      <c r="I53" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="45">
+        <v>39</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="17">
+        <v>1</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="52"/>
+      <c r="I54" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="45">
+        <v>40</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17">
+        <v>1</v>
+      </c>
+      <c r="F55" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="18">
+      <c r="G55" s="17"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="45">
+        <v>41</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="17">
+        <v>4</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="52"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="45">
+        <v>42</v>
+      </c>
+      <c r="B57" s="46"/>
+      <c r="C57" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="17">
+        <v>5</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="45">
+        <v>43</v>
+      </c>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46">
         <v>1</v>
       </c>
-      <c r="F50" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G50" s="18" t="s">
+      <c r="F58" s="47"/>
+      <c r="G58" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="46"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="45">
+        <v>44</v>
+      </c>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46">
+        <v>3</v>
+      </c>
+      <c r="F59" s="47"/>
+      <c r="G59" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="I59" s="46"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="45">
+        <v>45</v>
+      </c>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46">
+        <v>7</v>
+      </c>
+      <c r="F60" s="47"/>
+      <c r="G60" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H50" s="54"/>
-      <c r="I50" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="J50" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="45">
-        <v>36</v>
-      </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E51" s="18">
-        <v>1</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" s="18" t="s">
+      <c r="I60" s="46"/>
+      <c r="J60" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="45">
+        <v>46</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46">
+        <v>7</v>
+      </c>
+      <c r="F61" s="47"/>
+      <c r="G61" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="54"/>
-      <c r="I51" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="J51" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="46">
-        <v>37</v>
-      </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18">
-        <v>1</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="22"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="46">
-        <v>38</v>
-      </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="18">
-        <v>4</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="54"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="22"/>
-    </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="46">
-        <v>39</v>
-      </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="18">
-        <v>5</v>
-      </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="22"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="46">
-        <v>40</v>
-      </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47">
-        <v>1</v>
-      </c>
-      <c r="F55" s="48"/>
-      <c r="G55" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="I55" s="47"/>
-      <c r="J55" s="22"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="46">
-        <v>41</v>
-      </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47">
-        <v>3</v>
-      </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="I56" s="47"/>
-      <c r="J56" s="22"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="46">
-        <v>42</v>
-      </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47">
-        <v>7</v>
-      </c>
-      <c r="F57" s="48"/>
-      <c r="G57" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="I57" s="47"/>
-      <c r="J57" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="46">
-        <v>43</v>
-      </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47">
-        <v>7</v>
-      </c>
-      <c r="F58" s="48"/>
-      <c r="G58" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="I58" s="47"/>
-      <c r="J58" s="22" t="s">
+      <c r="I61" s="46"/>
+      <c r="J61" s="21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="46">
-        <v>44</v>
-      </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="22"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="22"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F64" s="50"/>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F64" s="48"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J60">
@@ -3502,12 +3754,15 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A16:A17"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:T48">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="A5:T51">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$H5&lt;$E5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$H5&gt;=$E5</formula>
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$H5&gt;=2*$E5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$H5&lt;=2*$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -3519,9 +3774,9 @@
     <hyperlink ref="J10" r:id="rId6" display="https://befr.rs-online.com/web/p/voltage-references/5343037/?cm_mmc=BE-PLA-DS3A-_-google-_-PLA_BE_FR_Semiconductors_Whoop-_-(BE:Whoop!)+Voltage+References-_-5343037&amp;matchtype=&amp;aud-827186183686:pla-533962920232&amp;gclid=Cj0KCQiAst2BBhDJARIsAGo2ldVAY1WrPDjC8paFXGNZEOmkZQx8TcAHaZFOpla8vljzKIUvydHTWN0aArtkEALw_wcB&amp;gclsrc=aw.ds" xr:uid="{4B66D013-D586-47EE-8D64-26CA00366A1F}"/>
     <hyperlink ref="F40" r:id="rId7" tooltip="MC 1,5/ 4-ST-3,5 1840382; Barrette de pression amovible; 3,5mm; pistes: 4; droit; femelle" display="https://www.tme.eu/fr/details/mc1.5_4-st-3.5/borniers-de-serrage-deconnectables/phoenix-contact/mc-1-5-4-st-3-5-1840382/" xr:uid="{CA613C76-B9F0-4233-86C4-BD3E113E3D81}"/>
     <hyperlink ref="F41" r:id="rId8" tooltip="DS1009-18AT1NX; Support: DIP; PIN: 18; 7,62mm; THT; Trame: 2,54mm" display="https://www.tme.eu/fr/details/icvt-18p/supports-dip-standard/connfly/ds1009-18at1nx/" xr:uid="{95D93535-A405-4289-A585-A00FC5365CAE}"/>
-    <hyperlink ref="F50" r:id="rId9" tooltip="VAQ-9-10-12-R; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-r/commutateurs-standards/highly/" xr:uid="{27067EA1-971F-4DC2-992B-9343F6A6CBB2}"/>
-    <hyperlink ref="F49" r:id="rId10" tooltip="VAQ-9-10-12-G; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-g/commutateurs-standards/highly/" xr:uid="{3D237C8C-FF33-4FBD-9F47-23A5FBAF27E4}"/>
-    <hyperlink ref="F51" r:id="rId11" tooltip="VAQ-9-10-12-Y; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-y/commutateurs-standards/highly/" xr:uid="{CE4B8ED0-965D-4C0E-A322-C5B8602B9323}"/>
+    <hyperlink ref="F53" r:id="rId9" tooltip="VAQ-9-10-12-R; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-r/commutateurs-standards/highly/" xr:uid="{27067EA1-971F-4DC2-992B-9343F6A6CBB2}"/>
+    <hyperlink ref="F52" r:id="rId10" tooltip="VAQ-9-10-12-G; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-g/commutateurs-standards/highly/" xr:uid="{3D237C8C-FF33-4FBD-9F47-23A5FBAF27E4}"/>
+    <hyperlink ref="F54" r:id="rId11" tooltip="VAQ-9-10-12-Y; Commutateur: bouton-poussoir; Pos: 2; SPDT; 10A/250VAC; ON-(ON)" display="https://www.tme.eu/fr/details/vaq-9-10-12-y/commutateurs-standards/highly/" xr:uid="{CE4B8ED0-965D-4C0E-A322-C5B8602B9323}"/>
     <hyperlink ref="F36" r:id="rId12" tooltip="SMAZ5V1-13-F; Diode: Zener; 1W; 5,1V; 196mA; SMD; rouleau,bande; SMA; diode simple" display="https://www.tme.eu/be/fr/details/smaz5v1-13-f/diodes-zener-smd/diodes-incorporated/" xr:uid="{CA0324DD-67DE-4ECD-AB47-263AE86E8EBD}"/>
     <hyperlink ref="F20" r:id="rId13" display="https://befr.rs-online.com/web/p/surface-mount-fixed-resistors/7218093/" xr:uid="{A69B2073-EAD3-4F64-994A-E2F02F998664}"/>
     <hyperlink ref="F38" r:id="rId14" tooltip="1SMA5913BT3G; Diode: Zener; 1,5W; 3,3V; SMD; rouleau,bande; SMA; diode simple" display="https://www.tme.eu/be/fr/details/1sma5913bt3g/diodes-zener-smd/on-semiconductor/" xr:uid="{971C21CD-F9A6-4515-A379-2101CBC403C6}"/>
